--- a/data/pca/factorExposure/factorExposure_2015-04-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02059421624790894</v>
+        <v>0.01162924271665563</v>
       </c>
       <c r="C2">
-        <v>0.02854078612830447</v>
+        <v>0.05436723626832113</v>
       </c>
       <c r="D2">
-        <v>0.1283196331990857</v>
+        <v>-0.1280330041561314</v>
       </c>
       <c r="E2">
-        <v>-0.02802821666409191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03377747872116863</v>
+      </c>
+      <c r="F2">
+        <v>-0.02766702270171999</v>
+      </c>
+      <c r="G2">
+        <v>0.06163507063229849</v>
+      </c>
+      <c r="H2">
+        <v>-0.1243497287557359</v>
+      </c>
+      <c r="I2">
+        <v>0.07567178181060105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04417318745581601</v>
+        <v>0.01661384768236217</v>
       </c>
       <c r="C4">
-        <v>0.07139707848843592</v>
+        <v>0.1068241816778063</v>
       </c>
       <c r="D4">
-        <v>0.09219877288619799</v>
+        <v>-0.1189963531605918</v>
       </c>
       <c r="E4">
-        <v>-0.1024177844288895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02212053246614753</v>
+      </c>
+      <c r="F4">
+        <v>-0.1003882758507524</v>
+      </c>
+      <c r="G4">
+        <v>-0.01231527890534854</v>
+      </c>
+      <c r="H4">
+        <v>-0.05567040479159314</v>
+      </c>
+      <c r="I4">
+        <v>-0.08725049480824415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0280105994451237</v>
+        <v>0.03216604619002805</v>
       </c>
       <c r="C6">
-        <v>0.01631633501026505</v>
+        <v>0.04031349124692639</v>
       </c>
       <c r="D6">
-        <v>0.1164630398802962</v>
+        <v>-0.1102767476790521</v>
       </c>
       <c r="E6">
-        <v>-0.0664087773675484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06971066755837006</v>
+      </c>
+      <c r="F6">
+        <v>-0.0448660716325406</v>
+      </c>
+      <c r="G6">
+        <v>-0.03295876802888142</v>
+      </c>
+      <c r="H6">
+        <v>-0.02407776075595865</v>
+      </c>
+      <c r="I6">
+        <v>-0.003247837765547828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001870699766343763</v>
+        <v>0.006279551904897839</v>
       </c>
       <c r="C7">
-        <v>0.02541889586794583</v>
+        <v>0.0404241891036899</v>
       </c>
       <c r="D7">
-        <v>0.1047538918743311</v>
+        <v>-0.09138793923073181</v>
       </c>
       <c r="E7">
-        <v>-0.03103425549605624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.0541891255758264</v>
+      </c>
+      <c r="F7">
+        <v>-0.008043524733026233</v>
+      </c>
+      <c r="G7">
+        <v>-0.06554262550435615</v>
+      </c>
+      <c r="H7">
+        <v>-0.06026048596187807</v>
+      </c>
+      <c r="I7">
+        <v>-0.0524096843261205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002296997154083884</v>
+        <v>-0.00679474858375042</v>
       </c>
       <c r="C8">
-        <v>0.02899036381702478</v>
+        <v>0.03920572379681962</v>
       </c>
       <c r="D8">
-        <v>0.0781874264112494</v>
+        <v>-0.06654532392463043</v>
       </c>
       <c r="E8">
-        <v>-0.04419879145760141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04035265039734351</v>
+      </c>
+      <c r="F8">
+        <v>-0.04296285510216515</v>
+      </c>
+      <c r="G8">
+        <v>0.04344044698094892</v>
+      </c>
+      <c r="H8">
+        <v>-0.0447845942796898</v>
+      </c>
+      <c r="I8">
+        <v>-0.02735234448557813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03345582842794929</v>
+        <v>0.01314482732693487</v>
       </c>
       <c r="C9">
-        <v>0.06316542188721488</v>
+        <v>0.088941279884052</v>
       </c>
       <c r="D9">
-        <v>0.09721036720062717</v>
+        <v>-0.1033695621475019</v>
       </c>
       <c r="E9">
-        <v>-0.08194095912966971</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01942000138362236</v>
+      </c>
+      <c r="F9">
+        <v>-0.06725599341227427</v>
+      </c>
+      <c r="G9">
+        <v>-0.03924352357903532</v>
+      </c>
+      <c r="H9">
+        <v>-0.05152684419344864</v>
+      </c>
+      <c r="I9">
+        <v>-0.04719729964155862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1812459359150265</v>
+        <v>0.2412751059839024</v>
       </c>
       <c r="C10">
-        <v>-0.1656398279033769</v>
+        <v>-0.08780298883495287</v>
       </c>
       <c r="D10">
-        <v>-0.02200888625485432</v>
+        <v>0.01134299573756713</v>
       </c>
       <c r="E10">
-        <v>-0.03962930852668126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01683959262115202</v>
+      </c>
+      <c r="F10">
+        <v>-0.0388282549897235</v>
+      </c>
+      <c r="G10">
+        <v>0.01863378815916816</v>
+      </c>
+      <c r="H10">
+        <v>0.01175255942108943</v>
+      </c>
+      <c r="I10">
+        <v>0.01127947949113569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0173560697037842</v>
+        <v>0.01077128741365323</v>
       </c>
       <c r="C11">
-        <v>0.04195640447238198</v>
+        <v>0.05855682135636842</v>
       </c>
       <c r="D11">
-        <v>0.04364221766057637</v>
+        <v>-0.03812328720631798</v>
       </c>
       <c r="E11">
-        <v>0.008272183214450305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.0254688306731483</v>
+      </c>
+      <c r="F11">
+        <v>0.0129514245375239</v>
+      </c>
+      <c r="G11">
+        <v>-0.03604246176760939</v>
+      </c>
+      <c r="H11">
+        <v>-0.02804726435902453</v>
+      </c>
+      <c r="I11">
+        <v>-0.03685986318443193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01619071518925207</v>
+        <v>0.01016655880920326</v>
       </c>
       <c r="C12">
-        <v>0.04306446674668505</v>
+        <v>0.05144719102964049</v>
       </c>
       <c r="D12">
-        <v>0.05541412821411471</v>
+        <v>-0.04557985579719768</v>
       </c>
       <c r="E12">
-        <v>-0.002523056173278554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01930350965519195</v>
+      </c>
+      <c r="F12">
+        <v>0.01498526391388895</v>
+      </c>
+      <c r="G12">
+        <v>-0.05898647779380779</v>
+      </c>
+      <c r="H12">
+        <v>-0.03934502021570321</v>
+      </c>
+      <c r="I12">
+        <v>-0.01084764774244713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.006747261241055354</v>
+        <v>0.002496563599053682</v>
       </c>
       <c r="C13">
-        <v>0.02567493017033634</v>
+        <v>0.05794283870104536</v>
       </c>
       <c r="D13">
-        <v>0.1208555102590798</v>
+        <v>-0.1562525650422149</v>
       </c>
       <c r="E13">
-        <v>-0.06002835564292436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04236400206368134</v>
+      </c>
+      <c r="F13">
+        <v>-0.03350853397798128</v>
+      </c>
+      <c r="G13">
+        <v>-0.03375249963324128</v>
+      </c>
+      <c r="H13">
+        <v>-0.09480237175615373</v>
+      </c>
+      <c r="I13">
+        <v>0.05681385708608086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003538763738974757</v>
+        <v>0.002866148589443574</v>
       </c>
       <c r="C14">
-        <v>0.0200040272135491</v>
+        <v>0.03464165530324356</v>
       </c>
       <c r="D14">
-        <v>0.08046488886362202</v>
+        <v>-0.08988458219859383</v>
       </c>
       <c r="E14">
-        <v>-0.02634245070334797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05986495729064733</v>
+      </c>
+      <c r="F14">
+        <v>-0.02492733044870598</v>
+      </c>
+      <c r="G14">
+        <v>-0.07204401274781595</v>
+      </c>
+      <c r="H14">
+        <v>-0.1313775537924795</v>
+      </c>
+      <c r="I14">
+        <v>-0.0147903134954942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002850404774316851</v>
+        <v>-0.005012965815496367</v>
       </c>
       <c r="C15">
-        <v>0.01146899058325055</v>
+        <v>0.02829894457413213</v>
       </c>
       <c r="D15">
-        <v>0.03623989229917818</v>
+        <v>-0.05703987580677305</v>
       </c>
       <c r="E15">
-        <v>-0.002690502739624008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.0220551321724632</v>
+      </c>
+      <c r="F15">
+        <v>-0.006198712267961503</v>
+      </c>
+      <c r="G15">
+        <v>-0.01210990358343124</v>
+      </c>
+      <c r="H15">
+        <v>-0.05576647206890428</v>
+      </c>
+      <c r="I15">
+        <v>-0.02665357667697198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01636176292872357</v>
+        <v>0.009408653868541093</v>
       </c>
       <c r="C16">
-        <v>0.03868581560085281</v>
+        <v>0.05100088765026019</v>
       </c>
       <c r="D16">
-        <v>0.04898626370322234</v>
+        <v>-0.04054685634273057</v>
       </c>
       <c r="E16">
-        <v>-0.003384037245530119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02617517649158992</v>
+      </c>
+      <c r="F16">
+        <v>0.006569195244501054</v>
+      </c>
+      <c r="G16">
+        <v>-0.04347835333517105</v>
+      </c>
+      <c r="H16">
+        <v>-0.02351427470653628</v>
+      </c>
+      <c r="I16">
+        <v>-0.02455905451072441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0003528621031941478</v>
+        <v>-0.002520084629163419</v>
       </c>
       <c r="C19">
-        <v>0.02131736777028718</v>
+        <v>0.01723042387605246</v>
       </c>
       <c r="D19">
-        <v>0.06692802550434108</v>
+        <v>-0.04777840122739364</v>
       </c>
       <c r="E19">
-        <v>-0.03121073984679244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.006532415576223139</v>
+      </c>
+      <c r="F19">
+        <v>-0.01129297611614767</v>
+      </c>
+      <c r="G19">
+        <v>-0.009705868529857867</v>
+      </c>
+      <c r="H19">
+        <v>-0.04772226280888304</v>
+      </c>
+      <c r="I19">
+        <v>0.006428072108297396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002641359830322968</v>
+        <v>0.004581062241379629</v>
       </c>
       <c r="C20">
-        <v>0.02651191031452766</v>
+        <v>0.04286498946852041</v>
       </c>
       <c r="D20">
-        <v>0.06833192506111754</v>
+        <v>-0.08134031346976775</v>
       </c>
       <c r="E20">
-        <v>-0.04585610245999844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02930886801384289</v>
+      </c>
+      <c r="F20">
+        <v>-0.02630131895483356</v>
+      </c>
+      <c r="G20">
+        <v>-0.04423600968626243</v>
+      </c>
+      <c r="H20">
+        <v>-0.03851913221646832</v>
+      </c>
+      <c r="I20">
+        <v>-0.05060022152728495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.007741869950314046</v>
+        <v>0.004247487394525555</v>
       </c>
       <c r="C21">
-        <v>0.03195369898484753</v>
+        <v>0.04979555151713499</v>
       </c>
       <c r="D21">
-        <v>0.1235772976665913</v>
+        <v>-0.1168482603656512</v>
       </c>
       <c r="E21">
-        <v>-0.0976124590799782</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03824572694350139</v>
+      </c>
+      <c r="F21">
+        <v>-0.0855544291650986</v>
+      </c>
+      <c r="G21">
+        <v>-0.07389745915610554</v>
+      </c>
+      <c r="H21">
+        <v>-0.1839679691338691</v>
+      </c>
+      <c r="I21">
+        <v>0.04337861075249424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002829082408517025</v>
+        <v>-0.01147615082486226</v>
       </c>
       <c r="C22">
-        <v>0.07001980950419065</v>
+        <v>0.09376815221239458</v>
       </c>
       <c r="D22">
-        <v>0.2961917556221451</v>
+        <v>-0.2700225627769155</v>
       </c>
       <c r="E22">
-        <v>-0.08343631330517072</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.08482230761613063</v>
+      </c>
+      <c r="F22">
+        <v>-0.02579380482741936</v>
+      </c>
+      <c r="G22">
+        <v>0.5282948413065769</v>
+      </c>
+      <c r="H22">
+        <v>0.1637254915063716</v>
+      </c>
+      <c r="I22">
+        <v>0.04242462641712847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003249391491821336</v>
+        <v>-0.008266729365959043</v>
       </c>
       <c r="C23">
-        <v>0.07030268976350369</v>
+        <v>0.09554612811250762</v>
       </c>
       <c r="D23">
-        <v>0.2951672913673097</v>
+        <v>-0.2725160451987759</v>
       </c>
       <c r="E23">
-        <v>-0.08360072769258951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.07982189279685971</v>
+      </c>
+      <c r="F23">
+        <v>-0.02882782437895115</v>
+      </c>
+      <c r="G23">
+        <v>0.5115473537934703</v>
+      </c>
+      <c r="H23">
+        <v>0.1552106199158912</v>
+      </c>
+      <c r="I23">
+        <v>0.04228820790214922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02259902895881391</v>
+        <v>0.01031470988238053</v>
       </c>
       <c r="C24">
-        <v>0.05853140434210095</v>
+        <v>0.06793578798908299</v>
       </c>
       <c r="D24">
-        <v>0.05589337308988214</v>
+        <v>-0.04305380039043678</v>
       </c>
       <c r="E24">
-        <v>-0.003137673225762396</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.03218228402741145</v>
+      </c>
+      <c r="F24">
+        <v>0.005631225840192197</v>
+      </c>
+      <c r="G24">
+        <v>-0.04575543361685788</v>
+      </c>
+      <c r="H24">
+        <v>-0.05173785952527814</v>
+      </c>
+      <c r="I24">
+        <v>-0.03467486398664258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02303125276374577</v>
+        <v>0.01415940552180788</v>
       </c>
       <c r="C25">
-        <v>0.05055772758527375</v>
+        <v>0.06262076160978344</v>
       </c>
       <c r="D25">
-        <v>0.05453104005816223</v>
+        <v>-0.04738197096991994</v>
       </c>
       <c r="E25">
-        <v>-0.01035630678598565</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01866761209494519</v>
+      </c>
+      <c r="F25">
+        <v>0.004535522766814555</v>
+      </c>
+      <c r="G25">
+        <v>-0.03545845796747676</v>
+      </c>
+      <c r="H25">
+        <v>-0.02198372940929181</v>
+      </c>
+      <c r="I25">
+        <v>-0.0229518024388359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01035182180072872</v>
+        <v>0.01733081159158765</v>
       </c>
       <c r="C26">
-        <v>0.01660165042272049</v>
+        <v>0.02910524566868512</v>
       </c>
       <c r="D26">
-        <v>0.06252425207766908</v>
+        <v>-0.05511764592029491</v>
       </c>
       <c r="E26">
-        <v>-0.03334538216837418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04219775835747687</v>
+      </c>
+      <c r="F26">
+        <v>-0.04331442211132892</v>
+      </c>
+      <c r="G26">
+        <v>-0.04426929709645929</v>
+      </c>
+      <c r="H26">
+        <v>-0.09420215835092929</v>
+      </c>
+      <c r="I26">
+        <v>-0.02253306245671278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2647810819873955</v>
+        <v>0.3174110926171644</v>
       </c>
       <c r="C28">
-        <v>-0.1907372794999713</v>
+        <v>-0.08811803046696016</v>
       </c>
       <c r="D28">
-        <v>-0.009673752998917743</v>
+        <v>0.02702911084769264</v>
       </c>
       <c r="E28">
-        <v>-0.03423616394551714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05119053472677461</v>
+      </c>
+      <c r="F28">
+        <v>-0.04254259686832572</v>
+      </c>
+      <c r="G28">
+        <v>0.05725720303449199</v>
+      </c>
+      <c r="H28">
+        <v>-0.030108398675481</v>
+      </c>
+      <c r="I28">
+        <v>-0.004696189974333545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001913677995242485</v>
+        <v>0.001090614699480186</v>
       </c>
       <c r="C29">
-        <v>0.0241367425778971</v>
+        <v>0.04045163588383062</v>
       </c>
       <c r="D29">
-        <v>0.07626529732219764</v>
+        <v>-0.09143771705479732</v>
       </c>
       <c r="E29">
-        <v>-0.03591157858372822</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.06727393271610559</v>
+      </c>
+      <c r="F29">
+        <v>-0.02735893725103841</v>
+      </c>
+      <c r="G29">
+        <v>-0.09678549943778528</v>
+      </c>
+      <c r="H29">
+        <v>-0.1455089282279607</v>
+      </c>
+      <c r="I29">
+        <v>-0.01670143335556995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02520385222745261</v>
+        <v>0.01400912406669379</v>
       </c>
       <c r="C30">
-        <v>0.07023079440918248</v>
+        <v>0.09540946823088034</v>
       </c>
       <c r="D30">
-        <v>0.1435281214512661</v>
+        <v>-0.1262219434658981</v>
       </c>
       <c r="E30">
-        <v>-0.0494560559781512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.0629404643546764</v>
+      </c>
+      <c r="F30">
+        <v>-0.02124231000156939</v>
+      </c>
+      <c r="G30">
+        <v>-0.009594703377993329</v>
+      </c>
+      <c r="H30">
+        <v>-0.03998838228432569</v>
+      </c>
+      <c r="I30">
+        <v>-0.05921927119847232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03583816618018829</v>
+        <v>0.007804031938349349</v>
       </c>
       <c r="C31">
-        <v>0.08498391315051777</v>
+        <v>0.09555040539657421</v>
       </c>
       <c r="D31">
-        <v>0.05610637980308558</v>
+        <v>-0.03745191008366222</v>
       </c>
       <c r="E31">
-        <v>-0.02190078827663931</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02161284873138311</v>
+      </c>
+      <c r="F31">
+        <v>-0.01578236437505798</v>
+      </c>
+      <c r="G31">
+        <v>-0.0200754908491682</v>
+      </c>
+      <c r="H31">
+        <v>-0.03988025811241029</v>
+      </c>
+      <c r="I31">
+        <v>-0.01783300958022789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01771066476516366</v>
+        <v>0.0124234962055581</v>
       </c>
       <c r="C32">
-        <v>0.03954491019158301</v>
+        <v>0.05328002163704831</v>
       </c>
       <c r="D32">
-        <v>0.0681652096815514</v>
+        <v>-0.07922102130097283</v>
       </c>
       <c r="E32">
-        <v>-0.05108934830339235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.001880891300363108</v>
+      </c>
+      <c r="F32">
+        <v>-0.04290396165441913</v>
+      </c>
+      <c r="G32">
+        <v>-0.02600819192385756</v>
+      </c>
+      <c r="H32">
+        <v>-0.06326209420677413</v>
+      </c>
+      <c r="I32">
+        <v>0.00183316936149107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006421928972158904</v>
+        <v>0.006086167233801404</v>
       </c>
       <c r="C33">
-        <v>0.04270575725026821</v>
+        <v>0.0619931937483603</v>
       </c>
       <c r="D33">
-        <v>0.1118475385603994</v>
+        <v>-0.1136562450340496</v>
       </c>
       <c r="E33">
-        <v>-0.0530691598663504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03583393097092794</v>
+      </c>
+      <c r="F33">
+        <v>-0.02917333280326333</v>
+      </c>
+      <c r="G33">
+        <v>-0.02995383708970331</v>
+      </c>
+      <c r="H33">
+        <v>-0.05175757675865628</v>
+      </c>
+      <c r="I33">
+        <v>-0.01890551343739652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02031122046666909</v>
+        <v>0.008094813003255373</v>
       </c>
       <c r="C34">
-        <v>0.05972897515036447</v>
+        <v>0.06263679664293408</v>
       </c>
       <c r="D34">
-        <v>0.05484827334363666</v>
+        <v>-0.02567590789447337</v>
       </c>
       <c r="E34">
-        <v>0.03566564171037841</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02972265645531157</v>
+      </c>
+      <c r="F34">
+        <v>0.03959261834319262</v>
+      </c>
+      <c r="G34">
+        <v>-0.03511228354275928</v>
+      </c>
+      <c r="H34">
+        <v>-0.030727192808237</v>
+      </c>
+      <c r="I34">
+        <v>-0.01337152658317946</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.003143129569641431</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01267625316604755</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03246268192657659</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.008332721461088146</v>
+      </c>
+      <c r="F35">
+        <v>-0.01597481774595903</v>
+      </c>
+      <c r="G35">
+        <v>-0.03966583378506239</v>
+      </c>
+      <c r="H35">
+        <v>-0.0529226926946986</v>
+      </c>
+      <c r="I35">
+        <v>-0.01758960837181612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006904418894956289</v>
+        <v>0.01137121729667294</v>
       </c>
       <c r="C36">
-        <v>0.008915570481907694</v>
+        <v>0.02394661085056101</v>
       </c>
       <c r="D36">
-        <v>0.06641132323944124</v>
+        <v>-0.06812684284210731</v>
       </c>
       <c r="E36">
-        <v>-0.05506822438352758</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.03441656219308022</v>
+      </c>
+      <c r="F36">
+        <v>-0.04793774498922797</v>
+      </c>
+      <c r="G36">
+        <v>-0.03167749260690947</v>
+      </c>
+      <c r="H36">
+        <v>-0.06255189526082619</v>
+      </c>
+      <c r="I36">
+        <v>-0.01830106429066778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.007278057797361134</v>
+        <v>0.01036819332694816</v>
       </c>
       <c r="C38">
-        <v>0.009063624037055141</v>
+        <v>0.02752832159344559</v>
       </c>
       <c r="D38">
-        <v>0.07225449242256814</v>
+        <v>-0.08133917057253408</v>
       </c>
       <c r="E38">
-        <v>-0.009231061571151441</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01194423556469258</v>
+      </c>
+      <c r="F38">
+        <v>-0.001024896572915693</v>
+      </c>
+      <c r="G38">
+        <v>-0.002620405043178853</v>
+      </c>
+      <c r="H38">
+        <v>-0.07004500881678177</v>
+      </c>
+      <c r="I38">
+        <v>-0.05380166392473795</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01526725818191473</v>
+        <v>0.004247773172085384</v>
       </c>
       <c r="C39">
-        <v>0.06101666873074602</v>
+        <v>0.08063610897306518</v>
       </c>
       <c r="D39">
-        <v>0.1006924984008364</v>
+        <v>-0.08570991104343111</v>
       </c>
       <c r="E39">
-        <v>-0.01023546584243199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05734404316385314</v>
+      </c>
+      <c r="F39">
+        <v>0.00646436297662992</v>
+      </c>
+      <c r="G39">
+        <v>-0.06980239834070177</v>
+      </c>
+      <c r="H39">
+        <v>-0.07456387380774751</v>
+      </c>
+      <c r="I39">
+        <v>-0.04122068879867327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01852213026902078</v>
+        <v>0.01420495840618945</v>
       </c>
       <c r="C40">
-        <v>0.02381345823160924</v>
+        <v>0.0435911613253321</v>
       </c>
       <c r="D40">
-        <v>0.1073129361391377</v>
+        <v>-0.09195019275260409</v>
       </c>
       <c r="E40">
-        <v>-0.003016555000970121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.05632749149055647</v>
+      </c>
+      <c r="F40">
+        <v>0.03028778985808107</v>
+      </c>
+      <c r="G40">
+        <v>0.01063722771744454</v>
+      </c>
+      <c r="H40">
+        <v>-0.09926668812148087</v>
+      </c>
+      <c r="I40">
+        <v>0.01793140009241317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009369840518758376</v>
+        <v>0.01556564755445605</v>
       </c>
       <c r="C41">
-        <v>0.00541864959915375</v>
+        <v>0.02082872090826906</v>
       </c>
       <c r="D41">
-        <v>0.03206514282547445</v>
+        <v>-0.04209345098205498</v>
       </c>
       <c r="E41">
-        <v>-0.02717069498817335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003541490451357985</v>
+      </c>
+      <c r="F41">
+        <v>-0.02337274081878771</v>
+      </c>
+      <c r="G41">
+        <v>-0.01575660856201814</v>
+      </c>
+      <c r="H41">
+        <v>-0.04101653958457204</v>
+      </c>
+      <c r="I41">
+        <v>-0.01676559285751456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.0005988660653889086</v>
+        <v>0.007944777603438804</v>
       </c>
       <c r="C43">
-        <v>0.004936276371259851</v>
+        <v>0.01728770190257796</v>
       </c>
       <c r="D43">
-        <v>0.0487582381725593</v>
+        <v>-0.05074463534432243</v>
       </c>
       <c r="E43">
-        <v>-0.02443963149917081</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01317845791331974</v>
+      </c>
+      <c r="F43">
+        <v>-0.02216508552956341</v>
+      </c>
+      <c r="G43">
+        <v>-0.02258394226954624</v>
+      </c>
+      <c r="H43">
+        <v>-0.05146691545878857</v>
+      </c>
+      <c r="I43">
+        <v>-0.03639245962299537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02103629267265606</v>
+        <v>0.01164002903819713</v>
       </c>
       <c r="C44">
-        <v>0.0240085955771937</v>
+        <v>0.04904914294643264</v>
       </c>
       <c r="D44">
-        <v>0.07976256023979499</v>
+        <v>-0.09632777025906883</v>
       </c>
       <c r="E44">
-        <v>-0.05752021736537605</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.04336241478524292</v>
+      </c>
+      <c r="F44">
+        <v>-0.03603171728760331</v>
+      </c>
+      <c r="G44">
+        <v>-0.004170024672524384</v>
+      </c>
+      <c r="H44">
+        <v>-0.06949102209117269</v>
+      </c>
+      <c r="I44">
+        <v>-0.03663057593833049</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.006869954020103848</v>
+        <v>-0.0007441258460137464</v>
       </c>
       <c r="C46">
-        <v>0.03233144861727351</v>
+        <v>0.04440197865221136</v>
       </c>
       <c r="D46">
-        <v>0.07199349903364971</v>
+        <v>-0.06693793997226412</v>
       </c>
       <c r="E46">
-        <v>-0.02833276630849507</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04851472151545209</v>
+      </c>
+      <c r="F46">
+        <v>-0.02909282325754893</v>
+      </c>
+      <c r="G46">
+        <v>-0.05641979836960759</v>
+      </c>
+      <c r="H46">
+        <v>-0.1181523535621835</v>
+      </c>
+      <c r="I46">
+        <v>-0.04026723161066159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07628219203393201</v>
+        <v>0.0303086847372485</v>
       </c>
       <c r="C47">
-        <v>0.1086513053811841</v>
+        <v>0.1282661945280974</v>
       </c>
       <c r="D47">
-        <v>0.04267631297424026</v>
+        <v>-0.01987828027497202</v>
       </c>
       <c r="E47">
-        <v>-0.01495587846486664</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.00892612842072415</v>
+      </c>
+      <c r="F47">
+        <v>0.004937973251260648</v>
+      </c>
+      <c r="G47">
+        <v>-0.05650870977029323</v>
+      </c>
+      <c r="H47">
+        <v>-0.02292940988554008</v>
+      </c>
+      <c r="I47">
+        <v>-0.02916582266532405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.009913425855901482</v>
+        <v>0.01473268236421495</v>
       </c>
       <c r="C48">
-        <v>0.01943934653455009</v>
+        <v>0.03538580687212153</v>
       </c>
       <c r="D48">
-        <v>0.06006501771235644</v>
+        <v>-0.06922144794715855</v>
       </c>
       <c r="E48">
-        <v>-0.05184258638857615</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02408866009297568</v>
+      </c>
+      <c r="F48">
+        <v>-0.05380634043448753</v>
+      </c>
+      <c r="G48">
+        <v>-0.04712698921773493</v>
+      </c>
+      <c r="H48">
+        <v>-0.1008603701568821</v>
+      </c>
+      <c r="I48">
+        <v>-0.04124887004350414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03265923126410757</v>
+        <v>0.01262348949287802</v>
       </c>
       <c r="C50">
-        <v>0.05954272547127967</v>
+        <v>0.07729714132011216</v>
       </c>
       <c r="D50">
-        <v>0.05465485551978611</v>
+        <v>-0.04616136972007716</v>
       </c>
       <c r="E50">
-        <v>-0.01168352423701316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01711964487422718</v>
+      </c>
+      <c r="F50">
+        <v>-0.008133339614176492</v>
+      </c>
+      <c r="G50">
+        <v>-0.00638943893916172</v>
+      </c>
+      <c r="H50">
+        <v>-0.02803861005762387</v>
+      </c>
+      <c r="I50">
+        <v>-0.02646890382542525</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001426421004411285</v>
+        <v>-0.0007438929644175259</v>
       </c>
       <c r="C51">
-        <v>0.006373387992896667</v>
+        <v>0.01795328743264652</v>
       </c>
       <c r="D51">
-        <v>0.04922118776094188</v>
+        <v>-0.04833651410038454</v>
       </c>
       <c r="E51">
-        <v>-0.02308569098727221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03999651097885287</v>
+      </c>
+      <c r="F51">
+        <v>-0.03531260471351567</v>
+      </c>
+      <c r="G51">
+        <v>-0.009714228815834589</v>
+      </c>
+      <c r="H51">
+        <v>-0.07142406821407575</v>
+      </c>
+      <c r="I51">
+        <v>-0.001685296542731254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1070250175674443</v>
+        <v>0.05353928586572034</v>
       </c>
       <c r="C53">
-        <v>0.127437823459666</v>
+        <v>0.1593123495072948</v>
       </c>
       <c r="D53">
-        <v>-0.01332553985558167</v>
+        <v>0.02308733311205402</v>
       </c>
       <c r="E53">
-        <v>-0.03730996160596903</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02924832519453575</v>
+      </c>
+      <c r="F53">
+        <v>-0.04356629471015208</v>
+      </c>
+      <c r="G53">
+        <v>-0.008709965827094771</v>
+      </c>
+      <c r="H53">
+        <v>-0.01067778401671912</v>
+      </c>
+      <c r="I53">
+        <v>-0.01392557874250901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01109397743288731</v>
+        <v>0.01112592193481199</v>
       </c>
       <c r="C54">
-        <v>0.02341596471750068</v>
+        <v>0.04089683410298361</v>
       </c>
       <c r="D54">
-        <v>0.08159074444437465</v>
+        <v>-0.07447749378497347</v>
       </c>
       <c r="E54">
-        <v>-0.01288105414899124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02382176846489836</v>
+      </c>
+      <c r="F54">
+        <v>-0.002416154741180412</v>
+      </c>
+      <c r="G54">
+        <v>-0.02410398361179387</v>
+      </c>
+      <c r="H54">
+        <v>-0.07511546046266843</v>
+      </c>
+      <c r="I54">
+        <v>-0.0473243744005894</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09274026768477424</v>
+        <v>0.04106519349490109</v>
       </c>
       <c r="C55">
-        <v>0.1081930943572329</v>
+        <v>0.1315180134791777</v>
       </c>
       <c r="D55">
-        <v>0.002192657886084071</v>
+        <v>0.03845067227321158</v>
       </c>
       <c r="E55">
-        <v>0.002870346989985947</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.005690869365743026</v>
+      </c>
+      <c r="F55">
+        <v>-0.002994662143634623</v>
+      </c>
+      <c r="G55">
+        <v>-0.001963539579513397</v>
+      </c>
+      <c r="H55">
+        <v>-0.004416490301871036</v>
+      </c>
+      <c r="I55">
+        <v>0.007700756734607335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1322180476946699</v>
+        <v>0.05516092883217016</v>
       </c>
       <c r="C56">
-        <v>0.1482145865525065</v>
+        <v>0.1904773682364909</v>
       </c>
       <c r="D56">
-        <v>0.002112451046280891</v>
+        <v>0.04095603835510282</v>
       </c>
       <c r="E56">
-        <v>0.01335727051277996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02844569774815556</v>
+      </c>
+      <c r="F56">
+        <v>-0.004776475314161454</v>
+      </c>
+      <c r="G56">
+        <v>0.03468974201978806</v>
+      </c>
+      <c r="H56">
+        <v>-0.03317866944667396</v>
+      </c>
+      <c r="I56">
+        <v>0.0008011513131115952</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.006855230160400312</v>
+        <v>0.003555361472318397</v>
       </c>
       <c r="C58">
-        <v>0.01613064937058554</v>
+        <v>0.06224177696669601</v>
       </c>
       <c r="D58">
-        <v>0.2062069352672944</v>
+        <v>-0.2805466864052257</v>
       </c>
       <c r="E58">
-        <v>-0.135880055009844</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.04076725926321818</v>
+      </c>
+      <c r="F58">
+        <v>-0.1295646880533421</v>
+      </c>
+      <c r="G58">
+        <v>0.1615137912517445</v>
+      </c>
+      <c r="H58">
+        <v>-0.005150901099867302</v>
+      </c>
+      <c r="I58">
+        <v>-0.03744643531824769</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1853016947381504</v>
+        <v>0.2544918907761685</v>
       </c>
       <c r="C59">
-        <v>-0.1394020205752138</v>
+        <v>-0.05663369334926709</v>
       </c>
       <c r="D59">
-        <v>0.03444163117982946</v>
+        <v>-0.04978336146451998</v>
       </c>
       <c r="E59">
-        <v>-0.026194464638735</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02248137398426152</v>
+      </c>
+      <c r="F59">
+        <v>-0.02173954254899928</v>
+      </c>
+      <c r="G59">
+        <v>0.01239017363285553</v>
+      </c>
+      <c r="H59">
+        <v>-0.01472825242329781</v>
+      </c>
+      <c r="I59">
+        <v>0.03250049684178726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1806499562050262</v>
+        <v>0.1496127615162756</v>
       </c>
       <c r="C60">
-        <v>0.1025165452238355</v>
+        <v>0.1717358104765645</v>
       </c>
       <c r="D60">
-        <v>0.2323075087896322</v>
+        <v>-0.08709342228517836</v>
       </c>
       <c r="E60">
-        <v>0.02305463917457664</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1521442399348945</v>
+      </c>
+      <c r="F60">
+        <v>0.1897407507421872</v>
+      </c>
+      <c r="G60">
+        <v>-0.1080183794082577</v>
+      </c>
+      <c r="H60">
+        <v>0.3021016447361972</v>
+      </c>
+      <c r="I60">
+        <v>0.1546010729975211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02455278395878067</v>
+        <v>0.01139893133080085</v>
       </c>
       <c r="C61">
-        <v>0.05568327797166696</v>
+        <v>0.07705429290551637</v>
       </c>
       <c r="D61">
-        <v>0.0797268651673437</v>
+        <v>-0.06697005809702813</v>
       </c>
       <c r="E61">
-        <v>-0.002685344000029388</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.0409852901406861</v>
+      </c>
+      <c r="F61">
+        <v>0.01496688777587157</v>
+      </c>
+      <c r="G61">
+        <v>-0.06996643559097682</v>
+      </c>
+      <c r="H61">
+        <v>-0.05534695473484662</v>
+      </c>
+      <c r="I61">
+        <v>-0.02684647978141161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01027086191230185</v>
+        <v>0.00999276795759118</v>
       </c>
       <c r="C63">
-        <v>0.02749459219421623</v>
+        <v>0.04126141968323406</v>
       </c>
       <c r="D63">
-        <v>0.07757652159541877</v>
+        <v>-0.05537139803802631</v>
       </c>
       <c r="E63">
-        <v>-0.03003975528731174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05858203264660282</v>
+      </c>
+      <c r="F63">
+        <v>-0.02141719670306656</v>
+      </c>
+      <c r="G63">
+        <v>-0.03722800953478506</v>
+      </c>
+      <c r="H63">
+        <v>-0.06509749614856265</v>
+      </c>
+      <c r="I63">
+        <v>-0.03285413083029794</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05480563250225523</v>
+        <v>0.0150460741527181</v>
       </c>
       <c r="C64">
-        <v>0.08667478947511999</v>
+        <v>0.1026932666915666</v>
       </c>
       <c r="D64">
-        <v>0.01380205748874237</v>
+        <v>-0.009257417407060877</v>
       </c>
       <c r="E64">
-        <v>-0.02375039322072665</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02252162674125599</v>
+      </c>
+      <c r="F64">
+        <v>-0.01952953673017144</v>
+      </c>
+      <c r="G64">
+        <v>-0.04558477679976927</v>
+      </c>
+      <c r="H64">
+        <v>-0.02535329082208048</v>
+      </c>
+      <c r="I64">
+        <v>-0.04694492121557747</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02564456046739144</v>
+        <v>0.02281276491444456</v>
       </c>
       <c r="C65">
-        <v>0.01821014578112804</v>
+        <v>0.04728798878542014</v>
       </c>
       <c r="D65">
-        <v>0.1038570640707176</v>
+        <v>-0.1083167950307353</v>
       </c>
       <c r="E65">
-        <v>-0.03148285936506224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.05506729598661217</v>
+      </c>
+      <c r="F65">
+        <v>0.005568818887063745</v>
+      </c>
+      <c r="G65">
+        <v>-0.03570956170775637</v>
+      </c>
+      <c r="H65">
+        <v>0.02172169251463104</v>
+      </c>
+      <c r="I65">
+        <v>-0.03575015897134209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02157219983927184</v>
+        <v>0.001832039212366202</v>
       </c>
       <c r="C66">
-        <v>0.07159438856862796</v>
+        <v>0.1006782683713674</v>
       </c>
       <c r="D66">
-        <v>0.1191836253052419</v>
+        <v>-0.1133244461850264</v>
       </c>
       <c r="E66">
-        <v>-0.01094473268099196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.05101379279765213</v>
+      </c>
+      <c r="F66">
+        <v>0.007824333743148846</v>
+      </c>
+      <c r="G66">
+        <v>-0.03560489852169376</v>
+      </c>
+      <c r="H66">
+        <v>-0.06235509090441872</v>
+      </c>
+      <c r="I66">
+        <v>-0.03611608659037729</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02394942136673719</v>
+        <v>0.01998785021182321</v>
       </c>
       <c r="C67">
-        <v>0.02138808861309734</v>
+        <v>0.03732479430148252</v>
       </c>
       <c r="D67">
-        <v>0.04057474793855471</v>
+        <v>-0.03955246807132667</v>
       </c>
       <c r="E67">
-        <v>0.02156806032039313</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01506077490697767</v>
+      </c>
+      <c r="F67">
+        <v>0.0284817426477909</v>
+      </c>
+      <c r="G67">
+        <v>-0.017421606904383</v>
+      </c>
+      <c r="H67">
+        <v>-0.05772155968510856</v>
+      </c>
+      <c r="I67">
+        <v>-0.04420836795169736</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2081662306630718</v>
+        <v>0.2787065307035662</v>
       </c>
       <c r="C68">
-        <v>-0.1506979296382513</v>
+        <v>-0.06242222889817842</v>
       </c>
       <c r="D68">
-        <v>0.02786874801107469</v>
+        <v>-0.02601517804238106</v>
       </c>
       <c r="E68">
-        <v>-0.02295318393724368</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.002297127375005661</v>
+      </c>
+      <c r="F68">
+        <v>-0.02281617305356472</v>
+      </c>
+      <c r="G68">
+        <v>0.07907994498019605</v>
+      </c>
+      <c r="H68">
+        <v>0.01177780058369964</v>
+      </c>
+      <c r="I68">
+        <v>0.01182407436650182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05329958437618326</v>
+        <v>0.01470802430724616</v>
       </c>
       <c r="C69">
-        <v>0.1187873032439979</v>
+        <v>0.118160511309346</v>
       </c>
       <c r="D69">
-        <v>0.06750120467243743</v>
+        <v>-0.02250368643684603</v>
       </c>
       <c r="E69">
-        <v>-0.01384672248607363</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01190701004841508</v>
+      </c>
+      <c r="F69">
+        <v>0.01230753351902177</v>
+      </c>
+      <c r="G69">
+        <v>-0.03734577100578147</v>
+      </c>
+      <c r="H69">
+        <v>-0.02141110429137561</v>
+      </c>
+      <c r="I69">
+        <v>-0.01263219231578854</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2164062307409973</v>
+        <v>0.2774242161274136</v>
       </c>
       <c r="C71">
-        <v>-0.1731242141105618</v>
+        <v>-0.07841173117634931</v>
       </c>
       <c r="D71">
-        <v>0.01830209878093468</v>
+        <v>-0.01458217164183815</v>
       </c>
       <c r="E71">
-        <v>-0.01032243629781524</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.001439383617647253</v>
+      </c>
+      <c r="F71">
+        <v>-0.01385710825044901</v>
+      </c>
+      <c r="G71">
+        <v>0.03099410243964743</v>
+      </c>
+      <c r="H71">
+        <v>-0.01119915850991474</v>
+      </c>
+      <c r="I71">
+        <v>-0.00568975596281438</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1007204113697663</v>
+        <v>0.05849641810792593</v>
       </c>
       <c r="C72">
-        <v>0.07638187838993779</v>
+        <v>0.1277277230747338</v>
       </c>
       <c r="D72">
-        <v>0.1243538024297746</v>
+        <v>-0.06165336275171829</v>
       </c>
       <c r="E72">
-        <v>-0.01414441353989643</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07341665020355151</v>
+      </c>
+      <c r="F72">
+        <v>0.02089392476447246</v>
+      </c>
+      <c r="G72">
+        <v>-0.06356125257703531</v>
+      </c>
+      <c r="H72">
+        <v>-0.01199220041894703</v>
+      </c>
+      <c r="I72">
+        <v>-0.02052568890090608</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1687815625749756</v>
+        <v>0.1417244815010836</v>
       </c>
       <c r="C73">
-        <v>0.07157663597431141</v>
+        <v>0.1518753219822136</v>
       </c>
       <c r="D73">
-        <v>0.291466616584729</v>
+        <v>-0.09468632900373718</v>
       </c>
       <c r="E73">
-        <v>0.05646928478273396</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2712028993281775</v>
+      </c>
+      <c r="F73">
+        <v>0.2712055828193575</v>
+      </c>
+      <c r="G73">
+        <v>-0.2802271234817611</v>
+      </c>
+      <c r="H73">
+        <v>0.351508152373441</v>
+      </c>
+      <c r="I73">
+        <v>0.09421633464457481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1056066827606055</v>
+        <v>0.05159415025286982</v>
       </c>
       <c r="C74">
-        <v>0.1174525544184814</v>
+        <v>0.1444582324111962</v>
       </c>
       <c r="D74">
-        <v>-0.03813450431704184</v>
+        <v>0.05097453198335077</v>
       </c>
       <c r="E74">
-        <v>-0.02381340444193529</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0136513781630975</v>
+      </c>
+      <c r="F74">
+        <v>-0.02855617033552301</v>
+      </c>
+      <c r="G74">
+        <v>0.004675515387150145</v>
+      </c>
+      <c r="H74">
+        <v>0.02345140500694969</v>
+      </c>
+      <c r="I74">
+        <v>0.009850849964006991</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.226044381991106</v>
+        <v>0.09807968941817416</v>
       </c>
       <c r="C75">
-        <v>0.2034102717866933</v>
+        <v>0.2671112936652228</v>
       </c>
       <c r="D75">
-        <v>-0.0904726661941451</v>
+        <v>0.1324921692511898</v>
       </c>
       <c r="E75">
-        <v>0.08715500212141407</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09618962842849914</v>
+      </c>
+      <c r="F75">
+        <v>0.04559288752939804</v>
+      </c>
+      <c r="G75">
+        <v>0.08878145263363203</v>
+      </c>
+      <c r="H75">
+        <v>-0.0595583607494542</v>
+      </c>
+      <c r="I75">
+        <v>-0.06442274664844737</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1341018293000723</v>
+        <v>0.05607749794473747</v>
       </c>
       <c r="C76">
-        <v>0.1395500239659553</v>
+        <v>0.1789634050562805</v>
       </c>
       <c r="D76">
-        <v>0.0003244517745186617</v>
+        <v>0.05105099578819697</v>
       </c>
       <c r="E76">
-        <v>0.01548297854573879</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02108563581369027</v>
+      </c>
+      <c r="F76">
+        <v>0.002894921250774553</v>
+      </c>
+      <c r="G76">
+        <v>0.02256337615062175</v>
+      </c>
+      <c r="H76">
+        <v>-0.04600784219069787</v>
+      </c>
+      <c r="I76">
+        <v>-0.01951300942461429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01770891212511736</v>
+        <v>0.001272751111675893</v>
       </c>
       <c r="C77">
-        <v>0.06917840144833061</v>
+        <v>0.1118476562068344</v>
       </c>
       <c r="D77">
-        <v>-0.03187459348738444</v>
+        <v>-0.3690778607874628</v>
       </c>
       <c r="E77">
-        <v>0.02689342261315326</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8339787421405002</v>
+      </c>
+      <c r="F77">
+        <v>0.1899395683615396</v>
+      </c>
+      <c r="G77">
+        <v>-0.1039797461401782</v>
+      </c>
+      <c r="H77">
+        <v>0.2064161473821637</v>
+      </c>
+      <c r="I77">
+        <v>0.004670507028954973</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02966632338001294</v>
+        <v>0.01732678110144812</v>
       </c>
       <c r="C78">
-        <v>0.07454297804725034</v>
+        <v>0.09316030345661341</v>
       </c>
       <c r="D78">
-        <v>0.1367489626583469</v>
+        <v>-0.1019530762089797</v>
       </c>
       <c r="E78">
-        <v>-0.06717280259183073</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06426716124184198</v>
+      </c>
+      <c r="F78">
+        <v>-0.04966546169854675</v>
+      </c>
+      <c r="G78">
+        <v>0.01176088736829764</v>
+      </c>
+      <c r="H78">
+        <v>-0.06991001356469786</v>
+      </c>
+      <c r="I78">
+        <v>0.03984906072388132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1027528629378311</v>
+        <v>0.0378447439313801</v>
       </c>
       <c r="C79">
-        <v>0.1913474680211467</v>
+        <v>0.2019605388404994</v>
       </c>
       <c r="D79">
-        <v>-0.3471927967918117</v>
+        <v>0.1136736138634098</v>
       </c>
       <c r="E79">
-        <v>-0.8415205064140612</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.07940167690266851</v>
+      </c>
+      <c r="F79">
+        <v>-0.8094652799208388</v>
+      </c>
+      <c r="G79">
+        <v>-0.1830330535640685</v>
+      </c>
+      <c r="H79">
+        <v>0.3855077510065176</v>
+      </c>
+      <c r="I79">
+        <v>0.04174291526302435</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.00319237708235453</v>
+        <v>0.00496687508486615</v>
       </c>
       <c r="C80">
-        <v>0.0454251322712351</v>
+        <v>0.04487580060111959</v>
       </c>
       <c r="D80">
-        <v>0.05321511448091173</v>
+        <v>-0.03855968397860972</v>
       </c>
       <c r="E80">
-        <v>-0.01000586311667904</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04991928348561291</v>
+      </c>
+      <c r="F80">
+        <v>0.001539614900322844</v>
+      </c>
+      <c r="G80">
+        <v>-0.0211897084516585</v>
+      </c>
+      <c r="H80">
+        <v>-0.03420174326088574</v>
+      </c>
+      <c r="I80">
+        <v>0.08524618567557378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1147039176784093</v>
+        <v>0.04016549986801317</v>
       </c>
       <c r="C81">
-        <v>0.1358389389143492</v>
+        <v>0.1645273714203755</v>
       </c>
       <c r="D81">
-        <v>-0.08443964720425018</v>
+        <v>0.08038865418816532</v>
       </c>
       <c r="E81">
-        <v>-0.004960916335092716</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04919278438168217</v>
+      </c>
+      <c r="F81">
+        <v>-0.05309872138201611</v>
+      </c>
+      <c r="G81">
+        <v>0.02476780175336019</v>
+      </c>
+      <c r="H81">
+        <v>-0.08679160460820902</v>
+      </c>
+      <c r="I81">
+        <v>0.000279629352561901</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2401378029443296</v>
+        <v>0.08425608142266021</v>
       </c>
       <c r="C82">
-        <v>0.296621754225287</v>
+        <v>0.3108343665032794</v>
       </c>
       <c r="D82">
-        <v>-0.1632790147010852</v>
+        <v>0.2398838530333946</v>
       </c>
       <c r="E82">
-        <v>0.2291056557905698</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07325598721591861</v>
+      </c>
+      <c r="F82">
+        <v>0.1310599131871925</v>
+      </c>
+      <c r="G82">
+        <v>0.0465847130436181</v>
+      </c>
+      <c r="H82">
+        <v>-0.1444333060275866</v>
+      </c>
+      <c r="I82">
+        <v>-0.007622635293848921</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01086417851440624</v>
+        <v>-0.01246444557591302</v>
       </c>
       <c r="C83">
-        <v>0.0535855255904393</v>
+        <v>0.02181351949351756</v>
       </c>
       <c r="D83">
-        <v>-0.004217179058050185</v>
+        <v>-0.02477998292408566</v>
       </c>
       <c r="E83">
-        <v>-0.02487136985588691</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08899090933838319</v>
+      </c>
+      <c r="F83">
+        <v>-0.06290391232671415</v>
+      </c>
+      <c r="G83">
+        <v>-0.02711786329651399</v>
+      </c>
+      <c r="H83">
+        <v>-0.2552188087962526</v>
+      </c>
+      <c r="I83">
+        <v>0.8980744443754772</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-4.356886814341414e-05</v>
+        <v>-0.004864887977105359</v>
       </c>
       <c r="C84">
-        <v>-0.001405848164541064</v>
+        <v>0.01734121393746153</v>
       </c>
       <c r="D84">
-        <v>-0.0004828453940726951</v>
+        <v>-0.0411064719139425</v>
       </c>
       <c r="E84">
-        <v>0.002160399801459633</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.003328770037826655</v>
+      </c>
+      <c r="F84">
+        <v>-0.02888915081017267</v>
+      </c>
+      <c r="G84">
+        <v>0.03110727486870961</v>
+      </c>
+      <c r="H84">
+        <v>-0.05477622057562698</v>
+      </c>
+      <c r="I84">
+        <v>-0.06304107562454758</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1375576691449161</v>
+        <v>0.05286319203723285</v>
       </c>
       <c r="C85">
-        <v>0.1439565734823147</v>
+        <v>0.1796768062626142</v>
       </c>
       <c r="D85">
-        <v>-0.05633557279920873</v>
+        <v>0.1054997467662537</v>
       </c>
       <c r="E85">
-        <v>-0.03598233829955082</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.002872931994652426</v>
+      </c>
+      <c r="F85">
+        <v>-0.06514316872315423</v>
+      </c>
+      <c r="G85">
+        <v>0.02780500043915265</v>
+      </c>
+      <c r="H85">
+        <v>0.0009657173518777515</v>
+      </c>
+      <c r="I85">
+        <v>-0.0081247526794047</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01923626463390873</v>
+        <v>0.01472573379992631</v>
       </c>
       <c r="C86">
-        <v>0.01175965443457118</v>
+        <v>0.04106135804887046</v>
       </c>
       <c r="D86">
-        <v>0.08606731680404089</v>
+        <v>-0.110218964942211</v>
       </c>
       <c r="E86">
-        <v>-0.02634676491520048</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01609326744531274</v>
+      </c>
+      <c r="F86">
+        <v>-0.01524710617301193</v>
+      </c>
+      <c r="G86">
+        <v>-0.01830827226784497</v>
+      </c>
+      <c r="H86">
+        <v>0.01331995558256301</v>
+      </c>
+      <c r="I86">
+        <v>-0.02790211436489608</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02187391101550008</v>
+        <v>0.0106254045426727</v>
       </c>
       <c r="C87">
-        <v>0.03130573674139261</v>
+        <v>0.06507437786180439</v>
       </c>
       <c r="D87">
-        <v>0.1168375929212196</v>
+        <v>-0.1357265835826081</v>
       </c>
       <c r="E87">
-        <v>-0.06170956383354663</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01911426897324257</v>
+      </c>
+      <c r="F87">
+        <v>-0.04322024552607496</v>
+      </c>
+      <c r="G87">
+        <v>0.02092864592628827</v>
+      </c>
+      <c r="H87">
+        <v>-0.08976809798539478</v>
+      </c>
+      <c r="I87">
+        <v>-0.002353626835048093</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05162275586582043</v>
+        <v>0.03282196054088103</v>
       </c>
       <c r="C88">
-        <v>0.04498270158539699</v>
+        <v>0.06934019734086663</v>
       </c>
       <c r="D88">
-        <v>0.01327248713081433</v>
+        <v>-0.01308549367597884</v>
       </c>
       <c r="E88">
-        <v>-0.02777080090241977</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02585501057426379</v>
+      </c>
+      <c r="F88">
+        <v>-0.01988695494712581</v>
+      </c>
+      <c r="G88">
+        <v>-0.02052391827221244</v>
+      </c>
+      <c r="H88">
+        <v>-0.005053480610213364</v>
+      </c>
+      <c r="I88">
+        <v>-0.02637750216258561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3262670297292424</v>
+        <v>0.4068945744239104</v>
       </c>
       <c r="C89">
-        <v>-0.3176418582240231</v>
+        <v>-0.1525198880938479</v>
       </c>
       <c r="D89">
-        <v>0.004794297157901212</v>
+        <v>-0.04149577477632241</v>
       </c>
       <c r="E89">
-        <v>-0.0828878547963743</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.04541947455617416</v>
+      </c>
+      <c r="F89">
+        <v>-0.05935455113527555</v>
+      </c>
+      <c r="G89">
+        <v>-0.04458428906840946</v>
+      </c>
+      <c r="H89">
+        <v>-0.1486112606459543</v>
+      </c>
+      <c r="I89">
+        <v>0.06151436732381996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2623880327368934</v>
+        <v>0.3200277257017343</v>
       </c>
       <c r="C90">
-        <v>-0.2326497095475572</v>
+        <v>-0.1030254462115249</v>
       </c>
       <c r="D90">
-        <v>0.05409408635430629</v>
+        <v>-0.03199489794213333</v>
       </c>
       <c r="E90">
-        <v>0.006760936660448818</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.007318199082085971</v>
+      </c>
+      <c r="F90">
+        <v>0.008339903291536346</v>
+      </c>
+      <c r="G90">
+        <v>0.06059897148757126</v>
+      </c>
+      <c r="H90">
+        <v>-0.03836344086201524</v>
+      </c>
+      <c r="I90">
+        <v>0.01225680332401269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1500426440470826</v>
+        <v>0.06494607248263809</v>
       </c>
       <c r="C91">
-        <v>0.1890793590968028</v>
+        <v>0.2052546731849348</v>
       </c>
       <c r="D91">
-        <v>-0.111473528570213</v>
+        <v>0.1119184185050674</v>
       </c>
       <c r="E91">
-        <v>-0.03686007140086772</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06572250039591949</v>
+      </c>
+      <c r="F91">
+        <v>-0.05658929678944623</v>
+      </c>
+      <c r="G91">
+        <v>0.01141816530638513</v>
+      </c>
+      <c r="H91">
+        <v>0.001193997118878088</v>
+      </c>
+      <c r="I91">
+        <v>0.02819302110731131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2447253207220564</v>
+        <v>0.3393208483228129</v>
       </c>
       <c r="C92">
-        <v>-0.2587020467413985</v>
+        <v>-0.1398873925295828</v>
       </c>
       <c r="D92">
-        <v>-0.06121188141245177</v>
+        <v>-0.01560261532528192</v>
       </c>
       <c r="E92">
-        <v>-0.0148017661420262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06612190291561068</v>
+      </c>
+      <c r="F92">
+        <v>-0.04222111051616601</v>
+      </c>
+      <c r="G92">
+        <v>0.02098170061655017</v>
+      </c>
+      <c r="H92">
+        <v>-0.0227168629282609</v>
+      </c>
+      <c r="I92">
+        <v>-0.136893573932743</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2863177594054917</v>
+        <v>0.3352077953790208</v>
       </c>
       <c r="C93">
-        <v>-0.2444299975967405</v>
+        <v>-0.1103119690520014</v>
       </c>
       <c r="D93">
-        <v>0.005533299897330034</v>
+        <v>0.01724220168090857</v>
       </c>
       <c r="E93">
-        <v>-0.01837372085264927</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02256614745405493</v>
+      </c>
+      <c r="F93">
+        <v>-0.01266300944828598</v>
+      </c>
+      <c r="G93">
+        <v>-0.004137274884158632</v>
+      </c>
+      <c r="H93">
+        <v>0.03555434235626722</v>
+      </c>
+      <c r="I93">
+        <v>-0.02891280503735263</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2823080756626132</v>
+        <v>0.120474938801033</v>
       </c>
       <c r="C94">
-        <v>0.2705424357513843</v>
+        <v>0.3388189120148303</v>
       </c>
       <c r="D94">
-        <v>-0.2488497383158214</v>
+        <v>0.3569593281793069</v>
       </c>
       <c r="E94">
-        <v>0.2813990430982644</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06838221997521367</v>
+      </c>
+      <c r="F94">
+        <v>0.1377229041414124</v>
+      </c>
+      <c r="G94">
+        <v>0.2960521522223202</v>
+      </c>
+      <c r="H94">
+        <v>-0.1125590538119894</v>
+      </c>
+      <c r="I94">
+        <v>-0.03045064775556559</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.009590986678478563</v>
+        <v>0.01276901034151941</v>
       </c>
       <c r="C95">
-        <v>0.04167751885785202</v>
+        <v>0.06659956738208149</v>
       </c>
       <c r="D95">
-        <v>-0.02325729031870169</v>
+        <v>-0.09822192500390282</v>
       </c>
       <c r="E95">
-        <v>0.02652785748276802</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1469826413236701</v>
+      </c>
+      <c r="F95">
+        <v>0.03421590715257688</v>
+      </c>
+      <c r="G95">
+        <v>-0.215394671584816</v>
+      </c>
+      <c r="H95">
+        <v>-0.2175458268621476</v>
+      </c>
+      <c r="I95">
+        <v>-0.1780536141198096</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001768281677017971</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001016179501643634</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0004794796406896851</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003779805962336746</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003011067400096351</v>
+      </c>
+      <c r="G97">
+        <v>-8.201153129976992e-05</v>
+      </c>
+      <c r="H97">
+        <v>-0.00260570062894717</v>
+      </c>
+      <c r="I97">
+        <v>-0.006413617860106464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1493672138716295</v>
+        <v>0.1241418452928462</v>
       </c>
       <c r="C98">
-        <v>0.08827669689628129</v>
+        <v>0.1550510639899552</v>
       </c>
       <c r="D98">
-        <v>0.1939818988022105</v>
+        <v>-0.05983833940474344</v>
       </c>
       <c r="E98">
-        <v>0.06972050382785767</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1888247885171705</v>
+      </c>
+      <c r="F98">
+        <v>0.2239327461688714</v>
+      </c>
+      <c r="G98">
+        <v>-0.1880604677573152</v>
+      </c>
+      <c r="H98">
+        <v>0.2928932440069693</v>
+      </c>
+      <c r="I98">
+        <v>0.1199393031937258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002663511919837472</v>
+        <v>0.001554122549032525</v>
       </c>
       <c r="C101">
-        <v>0.02340459474540761</v>
+        <v>0.03968508605611364</v>
       </c>
       <c r="D101">
-        <v>0.07567982339464423</v>
+        <v>-0.0906594341454135</v>
       </c>
       <c r="E101">
-        <v>-0.03646475935025907</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.06652260040708102</v>
+      </c>
+      <c r="F101">
+        <v>-0.02751213069692951</v>
+      </c>
+      <c r="G101">
+        <v>-0.09599443710517162</v>
+      </c>
+      <c r="H101">
+        <v>-0.1461495717563017</v>
+      </c>
+      <c r="I101">
+        <v>-0.0167364345577571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1039673386342955</v>
+        <v>0.02669241933544302</v>
       </c>
       <c r="C102">
-        <v>0.1584319570905627</v>
+        <v>0.1454893269931243</v>
       </c>
       <c r="D102">
-        <v>-0.05264976442001586</v>
+        <v>0.1056683682356357</v>
       </c>
       <c r="E102">
-        <v>0.106731162043358</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04301625315205551</v>
+      </c>
+      <c r="F102">
+        <v>0.08347295148893905</v>
+      </c>
+      <c r="G102">
+        <v>-0.01821015369798397</v>
+      </c>
+      <c r="H102">
+        <v>-0.02815481225482344</v>
+      </c>
+      <c r="I102">
+        <v>0.01332163201181009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
